--- a/data/trans_orig/CLASESOCIAL_R2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_R2-Clase-trans_orig.xlsx
@@ -2604,19 +2604,19 @@
         <v>648756</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>602195</v>
+        <v>606639</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>691260</v>
+        <v>695937</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1983847212091555</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.184146777522632</v>
+        <v>0.1855057302283812</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2113822699321857</v>
+        <v>0.2128124386199147</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1777</v>
@@ -2625,19 +2625,19 @@
         <v>1817511</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1757984</v>
+        <v>1761370</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1875202</v>
+        <v>1878090</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.5380239091029176</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.52040256512419</v>
+        <v>0.521404779100636</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.5551016050407737</v>
+        <v>0.5559563848581744</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2423</v>
@@ -2646,19 +2646,19 @@
         <v>2466267</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2394650</v>
+        <v>2382493</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>2544317</v>
+        <v>2546701</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3709613016211026</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3601890327768135</v>
+        <v>0.3583604102548092</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3827010289644281</v>
+        <v>0.3830597388307995</v>
       </c>
     </row>
     <row r="41">
@@ -2675,19 +2675,19 @@
         <v>1238334</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1184453</v>
+        <v>1187668</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1292914</v>
+        <v>1296999</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3786735374054787</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3621968929453995</v>
+        <v>0.3631802343613117</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.395363478928649</v>
+        <v>0.3966128429429365</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>694</v>
@@ -2696,19 +2696,19 @@
         <v>714285</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>667761</v>
+        <v>663507</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>765305</v>
+        <v>760636</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2114443798158261</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1976720105631679</v>
+        <v>0.1964128973838788</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2265472407222019</v>
+        <v>0.2251653020781908</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1918</v>
@@ -2717,19 +2717,19 @@
         <v>1952620</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1877374</v>
+        <v>1883791</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2020753</v>
+        <v>2032151</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2937014929810288</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2823834888461302</v>
+        <v>0.2833486952446791</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3039496583396399</v>
+        <v>0.3056640736485651</v>
       </c>
     </row>
     <row r="42">
@@ -2746,19 +2746,19 @@
         <v>542389</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>497538</v>
+        <v>500139</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>583059</v>
+        <v>587001</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1658586612114389</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1521435694489156</v>
+        <v>0.1529387358371154</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1782951467433853</v>
+        <v>0.1795005022165331</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>164</v>
@@ -2767,19 +2767,19 @@
         <v>167782</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>143649</v>
+        <v>144082</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>195089</v>
+        <v>194677</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.04966720613773127</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.04252333532440263</v>
+        <v>0.04265142330355835</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.05775068249699374</v>
+        <v>0.05762866475493269</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>696</v>
@@ -2788,19 +2788,19 @@
         <v>710171</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>662895</v>
+        <v>659724</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>764623</v>
+        <v>764385</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1068197613893694</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.09970873683464608</v>
+        <v>0.0992317676837436</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1150101231109863</v>
+        <v>0.1149743197103804</v>
       </c>
     </row>
     <row r="43">
@@ -2817,19 +2817,19 @@
         <v>366934</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>329434</v>
+        <v>328264</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>402205</v>
+        <v>405808</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.112205753879732</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1007385357954809</v>
+        <v>0.1003808368423775</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1229912155169687</v>
+        <v>0.1240932094269304</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>363</v>
@@ -2838,19 +2838,19 @@
         <v>371865</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>338291</v>
+        <v>336154</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>412466</v>
+        <v>408665</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1100802864128136</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1001415546490606</v>
+        <v>0.09950913972909511</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1220990221125172</v>
+        <v>0.1209740530786943</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>713</v>
@@ -2859,19 +2859,19 @@
         <v>738799</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>689578</v>
+        <v>690485</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>788593</v>
+        <v>792597</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1111257668809044</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1037222759736088</v>
+        <v>0.1038586732222897</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1186154340965309</v>
+        <v>0.1192177924142108</v>
       </c>
     </row>
     <row r="44">
@@ -2888,19 +2888,19 @@
         <v>473776</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>436848</v>
+        <v>431490</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>517742</v>
+        <v>515544</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1448773262941949</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1335849760670767</v>
+        <v>0.1319465029270636</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1583215880293292</v>
+        <v>0.1576496145042151</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>298</v>
@@ -2909,19 +2909,19 @@
         <v>306680</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>273179</v>
+        <v>274460</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>342484</v>
+        <v>341997</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.09078421853071142</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.08086717934426185</v>
+        <v>0.08124616787906883</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1013828426995631</v>
+        <v>0.1012387987283136</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>753</v>
@@ -2930,19 +2930,19 @@
         <v>780457</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>730146</v>
+        <v>730605</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>832971</v>
+        <v>834189</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1173916771275948</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.109824258788533</v>
+        <v>0.1098932960248461</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1252904875461933</v>
+        <v>0.1254736918579868</v>
       </c>
     </row>
     <row r="45">
@@ -5136,19 +5136,19 @@
         <v>777478</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>728019</v>
+        <v>729099</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>826454</v>
+        <v>831126</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2272059299690968</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2127522125209493</v>
+        <v>0.2130679118841298</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.241518263451437</v>
+        <v>0.242883765274617</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1747</v>
@@ -5157,19 +5157,19 @@
         <v>1870873</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1811086</v>
+        <v>1804860</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1934083</v>
+        <v>1932163</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.5269879166823536</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.5101472057944436</v>
+        <v>0.5083934611281142</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.5447930230643241</v>
+        <v>0.5442520920374032</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2499</v>
@@ -5178,19 +5178,19 @@
         <v>2648351</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2566829</v>
+        <v>2566256</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>2736637</v>
+        <v>2729197</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3798534095438652</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3681606573942213</v>
+        <v>0.368078457265704</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.392516278648103</v>
+        <v>0.3914491298898123</v>
       </c>
     </row>
     <row r="41">
@@ -5207,19 +5207,19 @@
         <v>1159009</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1094578</v>
+        <v>1099933</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1218424</v>
+        <v>1217024</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3387024500773707</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3198734597570298</v>
+        <v>0.32143822943869</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3560654609622114</v>
+        <v>0.3556563094937278</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>711</v>
@@ -5228,19 +5228,19 @@
         <v>766657</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>712801</v>
+        <v>714672</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>818800</v>
+        <v>818033</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2159522300577737</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2007818560882123</v>
+        <v>0.2013090287204862</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2306397327275924</v>
+        <v>0.2304237291231089</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1794</v>
@@ -5249,19 +5249,19 @@
         <v>1925667</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1846190</v>
+        <v>1844511</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2003513</v>
+        <v>1992924</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2761986555409688</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2647992418584569</v>
+        <v>0.2645585016649836</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2873642328002902</v>
+        <v>0.2858453515032263</v>
       </c>
     </row>
     <row r="42">
@@ -5278,19 +5278,19 @@
         <v>629415</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>582457</v>
+        <v>580669</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>682925</v>
+        <v>675166</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1839367134303665</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1702141076529861</v>
+        <v>0.1696914221048689</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1995741962252868</v>
+        <v>0.1973066577229156</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>244</v>
@@ -5299,19 +5299,19 @@
         <v>260129</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>229418</v>
+        <v>232547</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>293971</v>
+        <v>295695</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.07327331636788599</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.06462247463503312</v>
+        <v>0.06550388216456894</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.08280578803700396</v>
+        <v>0.08329150511061195</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>835</v>
@@ -5320,19 +5320,19 @@
         <v>889544</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>830180</v>
+        <v>829949</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>952715</v>
+        <v>944068</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1275874683407099</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1190728212053108</v>
+        <v>0.1190397232682267</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1366481045031778</v>
+        <v>0.1354078613392329</v>
       </c>
     </row>
     <row r="43">
@@ -5349,19 +5349,19 @@
         <v>418797</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>380448</v>
+        <v>379133</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>459269</v>
+        <v>463513</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1223868939876587</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1111800395615946</v>
+        <v>0.1107956765581987</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1342142430133978</v>
+        <v>0.1354545208101333</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>305</v>
@@ -5370,19 +5370,19 @@
         <v>338011</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>300302</v>
+        <v>301367</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>376614</v>
+        <v>375220</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.09521102845455413</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.08458916847752938</v>
+        <v>0.08488911660024674</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1060846688492662</v>
+        <v>0.1056919618288282</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>680</v>
@@ -5391,19 +5391,19 @@
         <v>756808</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>704346</v>
+        <v>705490</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>821267</v>
+        <v>818463</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.108549079966968</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1010244780513008</v>
+        <v>0.1011885443001339</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1177944593706553</v>
+        <v>0.1173922787770394</v>
       </c>
     </row>
     <row r="44">
@@ -5420,19 +5420,19 @@
         <v>437211</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>400522</v>
+        <v>400214</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>479456</v>
+        <v>483417</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1277680125355073</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1170462854900911</v>
+        <v>0.116956410852656</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1401134662446232</v>
+        <v>0.1412712425294883</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>283</v>
@@ -5441,19 +5441,19 @@
         <v>314454</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>278740</v>
+        <v>280045</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>347319</v>
+        <v>350872</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.08857550843743264</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.07851541328302394</v>
+        <v>0.07888325847460236</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.09783298808065641</v>
+        <v>0.09883372953771047</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>687</v>
@@ -5462,19 +5462,19 @@
         <v>751665</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>700402</v>
+        <v>703262</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>807438</v>
+        <v>815290</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1078113866074881</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1004587576179483</v>
+        <v>0.1008689632014626</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1158109570490265</v>
+        <v>0.1169372193288615</v>
       </c>
     </row>
     <row r="45">
@@ -7668,19 +7668,19 @@
         <v>907851</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>857714</v>
+        <v>854056</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>964232</v>
+        <v>958094</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2681410285029135</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.253332552586395</v>
+        <v>0.2522522084265846</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2847936374323072</v>
+        <v>0.2829806902311381</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1691</v>
@@ -7689,19 +7689,19 @@
         <v>1820269</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1752635</v>
+        <v>1759526</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1881932</v>
+        <v>1883019</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.5154239005327942</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.4962727462091353</v>
+        <v>0.4982240028450519</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.5328843504776281</v>
+        <v>0.5331921182039104</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2560</v>
@@ -7710,19 +7710,19 @@
         <v>2728120</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2651807</v>
+        <v>2644919</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>2810054</v>
+        <v>2812193</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3943898382869567</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3833576119591019</v>
+        <v>0.3823618909791383</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.4062345462877515</v>
+        <v>0.4065437657465955</v>
       </c>
     </row>
     <row r="41">
@@ -7739,19 +7739,19 @@
         <v>1149638</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1090515</v>
+        <v>1096972</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1208109</v>
+        <v>1214240</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3395548463066198</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3220922374090041</v>
+        <v>0.3239994680750224</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3568247257959137</v>
+        <v>0.3586354777732511</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>798</v>
@@ -7760,19 +7760,19 @@
         <v>825876</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>774678</v>
+        <v>773341</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>875513</v>
+        <v>877995</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.233853444498928</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2193563818963069</v>
+        <v>0.2189777127565972</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2479084565708612</v>
+        <v>0.2486112684152898</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1901</v>
@@ -7781,19 +7781,19 @@
         <v>1975514</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1898990</v>
+        <v>1897414</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2046864</v>
+        <v>2050701</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2855896199195957</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2745269298797436</v>
+        <v>0.2742991536323392</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2959042928138144</v>
+        <v>0.2964589348693019</v>
       </c>
     </row>
     <row r="42">
@@ -7810,19 +7810,19 @@
         <v>521914</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>484641</v>
+        <v>478074</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>572740</v>
+        <v>567241</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1541513370381617</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1431426615284241</v>
+        <v>0.1412028530383994</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1691634407907166</v>
+        <v>0.1675391202191063</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>153</v>
@@ -7831,19 +7831,19 @@
         <v>166123</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>140538</v>
+        <v>142767</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>192826</v>
+        <v>194517</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.04703901046734452</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.03979444477532484</v>
+        <v>0.04042556156848659</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.05460027393395998</v>
+        <v>0.05507917628416903</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>655</v>
@@ -7852,19 +7852,19 @@
         <v>688036</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>641010</v>
+        <v>636901</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>740844</v>
+        <v>738280</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.0994657713466917</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.09266746637507041</v>
+        <v>0.09207343305384531</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1070999062697403</v>
+        <v>0.106729190658836</v>
       </c>
     </row>
     <row r="43">
@@ -7881,19 +7881,19 @@
         <v>377227</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>341448</v>
+        <v>342143</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>419734</v>
+        <v>418392</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1114170057615965</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1008493434147549</v>
+        <v>0.1010547689661804</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1239717567323254</v>
+        <v>0.1235754292114226</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>352</v>
@@ -7902,19 +7902,19 @@
         <v>372273</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>338595</v>
+        <v>336227</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>413321</v>
+        <v>409076</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1054122026894796</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.09587581258345222</v>
+        <v>0.09520534366992579</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1170351707011684</v>
+        <v>0.1158331182663785</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>706</v>
@@ -7923,19 +7923,19 @@
         <v>749500</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>697117</v>
+        <v>699049</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>802704</v>
+        <v>808555</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1083512890193924</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1007784924853244</v>
+        <v>0.1010578782555595</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.116042719313223</v>
+        <v>0.1168885395986381</v>
       </c>
     </row>
     <row r="44">
@@ -7952,19 +7952,19 @@
         <v>429092</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>386662</v>
+        <v>391963</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>467987</v>
+        <v>472220</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1267357823907085</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1142036646965984</v>
+        <v>0.11576937671983</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1382238316504355</v>
+        <v>0.1394739054912069</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>332</v>
@@ -7973,19 +7973,19 @@
         <v>347055</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>312674</v>
+        <v>314210</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>386823</v>
+        <v>385492</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.0982714418114537</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.08853612086940575</v>
+        <v>0.08897123456830616</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1095321167272811</v>
+        <v>0.1091552650920433</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>728</v>
@@ -7994,19 +7994,19 @@
         <v>776147</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>725214</v>
+        <v>722548</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>831358</v>
+        <v>833016</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1122034814273635</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1048403966405907</v>
+        <v>0.1044548881301726</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1201850487083593</v>
+        <v>0.1204246610216733</v>
       </c>
     </row>
     <row r="45">
@@ -10200,19 +10200,19 @@
         <v>805191</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>744506</v>
+        <v>742480</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>867950</v>
+        <v>869351</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2338988961002917</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2162705412071413</v>
+        <v>0.2156818514539862</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2521294802164069</v>
+        <v>0.2525365726913924</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2449</v>
@@ -10221,19 +10221,19 @@
         <v>1675131</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1618697</v>
+        <v>1623059</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1726310</v>
+        <v>1731887</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.4607839707679511</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.4452606069780254</v>
+        <v>0.4464605274887026</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.474862004750385</v>
+        <v>0.476396049700468</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3108</v>
@@ -10242,19 +10242,19 @@
         <v>2480322</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2398845</v>
+        <v>2393785</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>2561586</v>
+        <v>2556187</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3504334678157087</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3389218792989096</v>
+        <v>0.3382070903610607</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3619148453068325</v>
+        <v>0.361152093228053</v>
       </c>
     </row>
     <row r="41">
@@ -10271,19 +10271,19 @@
         <v>1131843</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1068807</v>
+        <v>1076381</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1188153</v>
+        <v>1195677</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3287874439134455</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3104763450361476</v>
+        <v>0.3126763549429966</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3451449957520107</v>
+        <v>0.3473305646065352</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1230</v>
@@ -10292,19 +10292,19 @@
         <v>861211</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>819418</v>
+        <v>818269</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>914373</v>
+        <v>909961</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2368963829526168</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2254001183832244</v>
+        <v>0.2250841026574186</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2515196451651866</v>
+        <v>0.250306196256911</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2348</v>
@@ -10313,19 +10313,19 @@
         <v>1993054</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1912683</v>
+        <v>1927638</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2072864</v>
+        <v>2074062</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2815896039972182</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2702343517166598</v>
+        <v>0.2723472929306686</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2928654826688794</v>
+        <v>0.2930348269064362</v>
       </c>
     </row>
     <row r="42">
@@ -10342,19 +10342,19 @@
         <v>471612</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>428735</v>
+        <v>430868</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>514244</v>
+        <v>516713</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1369977837865752</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1245427631420442</v>
+        <v>0.1251623123403107</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1493818938714953</v>
+        <v>0.1500992822659848</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>289</v>
@@ -10363,19 +10363,19 @@
         <v>187497</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>166121</v>
+        <v>166975</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>213299</v>
+        <v>211190</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.05157550307618771</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.04569549155532637</v>
+        <v>0.04593032629791055</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.05867296660817322</v>
+        <v>0.05809286086930102</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>777</v>
@@ -10384,19 +10384,19 @@
         <v>659109</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>614541</v>
+        <v>609810</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>707468</v>
+        <v>705428</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.09312249180396824</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.08682574076234716</v>
+        <v>0.08615725146183935</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.09995500600631432</v>
+        <v>0.09966667285258733</v>
       </c>
     </row>
     <row r="43">
@@ -10413,19 +10413,19 @@
         <v>483212</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>437799</v>
+        <v>439400</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>525838</v>
+        <v>527923</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1403675740973617</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1271757434773312</v>
+        <v>0.1276407342900449</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1527500542538514</v>
+        <v>0.1533555877948863</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>590</v>
@@ -10434,19 +10434,19 @@
         <v>423143</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>393365</v>
+        <v>389931</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>466381</v>
+        <v>459679</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1163953136336853</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1082042092423738</v>
+        <v>0.1072596927524639</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1282890665680823</v>
+        <v>0.1264455148917101</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1071</v>
@@ -10455,19 +10455,19 @@
         <v>906355</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>854311</v>
+        <v>849226</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>961264</v>
+        <v>962500</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1280547451892591</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1207016704572379</v>
+        <v>0.1199832602957102</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1358125742158454</v>
+        <v>0.1359872464824566</v>
       </c>
     </row>
     <row r="44">
@@ -10484,19 +10484,19 @@
         <v>550618</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>503345</v>
+        <v>509536</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>598838</v>
+        <v>599577</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1599483021023261</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1462159800425057</v>
+        <v>0.1480144148645461</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1739555412585032</v>
+        <v>0.1741703416076326</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>686</v>
@@ -10505,19 +10505,19 @@
         <v>488411</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>455731</v>
+        <v>453162</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>526402</v>
+        <v>526476</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1343488295695592</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1253594114868274</v>
+        <v>0.1246529065722933</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1447992211171144</v>
+        <v>0.1448196476874259</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1240</v>
@@ -10526,19 +10526,19 @@
         <v>1039029</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>981334</v>
+        <v>980555</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1098360</v>
+        <v>1094207</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1467996911938457</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1386481715221929</v>
+        <v>0.1385381697084083</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1551823511082651</v>
+        <v>0.1545955677825115</v>
       </c>
     </row>
     <row r="45">
